--- a/PERFORMANCE BIOCHIMICA 26.2.19 DEF.xlsx
+++ b/PERFORMANCE BIOCHIMICA 26.2.19 DEF.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="13740" tabRatio="804" activeTab="23"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="13740" tabRatio="804" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ALBUMIN" sheetId="2" r:id="rId1"/>
@@ -2472,11 +2472,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="54604160"/>
-        <c:axId val="54606080"/>
+        <c:axId val="123573760"/>
+        <c:axId val="123575680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="54604160"/>
+        <c:axId val="123573760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2555,13 +2555,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54606080"/>
+        <c:crossAx val="123575680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="54606080"/>
+        <c:axId val="123575680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2640,7 +2640,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54604160"/>
+        <c:crossAx val="123573760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -3040,11 +3040,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="107068416"/>
-        <c:axId val="107107456"/>
+        <c:axId val="124563840"/>
+        <c:axId val="124565760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107068416"/>
+        <c:axId val="124563840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3123,13 +3123,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107107456"/>
+        <c:crossAx val="124565760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107107456"/>
+        <c:axId val="124565760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3208,7 +3208,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107068416"/>
+        <c:crossAx val="124563840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -3608,11 +3608,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="107123072"/>
-        <c:axId val="107124992"/>
+        <c:axId val="124646912"/>
+        <c:axId val="124648832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107123072"/>
+        <c:axId val="124646912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3691,13 +3691,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107124992"/>
+        <c:crossAx val="124648832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107124992"/>
+        <c:axId val="124648832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3776,7 +3776,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107123072"/>
+        <c:crossAx val="124646912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -4176,11 +4176,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="106741760"/>
-        <c:axId val="106743680"/>
+        <c:axId val="124724352"/>
+        <c:axId val="124726272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="106741760"/>
+        <c:axId val="124724352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4259,13 +4259,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106743680"/>
+        <c:crossAx val="124726272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="106743680"/>
+        <c:axId val="124726272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4344,7 +4344,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106741760"/>
+        <c:crossAx val="124724352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -4744,11 +4744,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="109278720"/>
-        <c:axId val="109280640"/>
+        <c:axId val="124840192"/>
+        <c:axId val="123355520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="109278720"/>
+        <c:axId val="124840192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4827,13 +4827,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109280640"/>
+        <c:crossAx val="123355520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="109280640"/>
+        <c:axId val="123355520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4912,7 +4912,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109278720"/>
+        <c:crossAx val="124840192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -5312,11 +5312,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="109405312"/>
-        <c:axId val="109407232"/>
+        <c:axId val="124757888"/>
+        <c:axId val="124780544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="109405312"/>
+        <c:axId val="124757888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5395,13 +5395,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109407232"/>
+        <c:crossAx val="124780544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="109407232"/>
+        <c:axId val="124780544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5480,7 +5480,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109405312"/>
+        <c:crossAx val="124757888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -5880,11 +5880,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="109467904"/>
-        <c:axId val="109478272"/>
+        <c:axId val="125209600"/>
+        <c:axId val="125232256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="109467904"/>
+        <c:axId val="125209600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5963,13 +5963,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109478272"/>
+        <c:crossAx val="125232256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="109478272"/>
+        <c:axId val="125232256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6048,7 +6048,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109467904"/>
+        <c:crossAx val="125209600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -6448,11 +6448,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="111249280"/>
-        <c:axId val="111259648"/>
+        <c:axId val="125274752"/>
+        <c:axId val="125285120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="111249280"/>
+        <c:axId val="125274752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6531,13 +6531,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111259648"/>
+        <c:crossAx val="125285120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="111259648"/>
+        <c:axId val="125285120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6616,7 +6616,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111249280"/>
+        <c:crossAx val="125274752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -7016,11 +7016,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="111078784"/>
-        <c:axId val="110896640"/>
+        <c:axId val="125415424"/>
+        <c:axId val="125417344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="111078784"/>
+        <c:axId val="125415424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7099,13 +7099,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110896640"/>
+        <c:crossAx val="125417344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="110896640"/>
+        <c:axId val="125417344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7184,7 +7184,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111078784"/>
+        <c:crossAx val="125415424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -7584,11 +7584,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="110942848"/>
-        <c:axId val="111158016"/>
+        <c:axId val="125599104"/>
+        <c:axId val="125621760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="110942848"/>
+        <c:axId val="125599104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7667,13 +7667,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111158016"/>
+        <c:crossAx val="125621760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="111158016"/>
+        <c:axId val="125621760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7752,7 +7752,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110942848"/>
+        <c:crossAx val="125599104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -8152,11 +8152,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="111332736"/>
-        <c:axId val="111678976"/>
+        <c:axId val="125698816"/>
+        <c:axId val="125700736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="111332736"/>
+        <c:axId val="125698816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8235,13 +8235,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111678976"/>
+        <c:crossAx val="125700736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="111678976"/>
+        <c:axId val="125700736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8320,7 +8320,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111332736"/>
+        <c:crossAx val="125698816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -8713,11 +8713,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="54681600"/>
-        <c:axId val="54683520"/>
+        <c:axId val="123630720"/>
+        <c:axId val="123632640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="54681600"/>
+        <c:axId val="123630720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8796,13 +8796,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54683520"/>
+        <c:crossAx val="123632640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="54683520"/>
+        <c:axId val="123632640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8881,7 +8881,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54681600"/>
+        <c:crossAx val="123630720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -9281,11 +9281,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="111721856"/>
-        <c:axId val="111416832"/>
+        <c:axId val="125772160"/>
+        <c:axId val="125774080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="111721856"/>
+        <c:axId val="125772160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9364,13 +9364,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111416832"/>
+        <c:crossAx val="125774080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="111416832"/>
+        <c:axId val="125774080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9449,7 +9449,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111721856"/>
+        <c:crossAx val="125772160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -9849,11 +9849,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="111501696"/>
-        <c:axId val="111503616"/>
+        <c:axId val="125892096"/>
+        <c:axId val="125894016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="111501696"/>
+        <c:axId val="125892096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9932,13 +9932,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111503616"/>
+        <c:crossAx val="125894016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="111503616"/>
+        <c:axId val="125894016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10017,7 +10017,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111501696"/>
+        <c:crossAx val="125892096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -10417,11 +10417,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="111628288"/>
-        <c:axId val="111630208"/>
+        <c:axId val="126035072"/>
+        <c:axId val="126036992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="111628288"/>
+        <c:axId val="126035072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10500,13 +10500,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111630208"/>
+        <c:crossAx val="126036992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="111630208"/>
+        <c:axId val="126036992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10585,7 +10585,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111628288"/>
+        <c:crossAx val="126035072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -10985,11 +10985,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="111764608"/>
-        <c:axId val="111766528"/>
+        <c:axId val="126163200"/>
+        <c:axId val="126177664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="111764608"/>
+        <c:axId val="126163200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11068,13 +11068,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111766528"/>
+        <c:crossAx val="126177664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="111766528"/>
+        <c:axId val="126177664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11153,7 +11153,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111764608"/>
+        <c:crossAx val="126163200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -11553,11 +11553,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="110703360"/>
-        <c:axId val="110705280"/>
+        <c:axId val="126224256"/>
+        <c:axId val="126238720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="110703360"/>
+        <c:axId val="126224256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11636,13 +11636,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110705280"/>
+        <c:crossAx val="126238720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="110705280"/>
+        <c:axId val="126238720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11721,7 +11721,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110703360"/>
+        <c:crossAx val="126224256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -12121,11 +12121,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="110872448"/>
-        <c:axId val="110882816"/>
+        <c:axId val="126372864"/>
+        <c:axId val="126387328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="110872448"/>
+        <c:axId val="126372864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12204,13 +12204,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110882816"/>
+        <c:crossAx val="126387328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="110882816"/>
+        <c:axId val="126387328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12289,7 +12289,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110872448"/>
+        <c:crossAx val="126372864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -12689,11 +12689,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="110810624"/>
-        <c:axId val="110812544"/>
+        <c:axId val="126446208"/>
+        <c:axId val="126472960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="110810624"/>
+        <c:axId val="126446208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12772,13 +12772,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110812544"/>
+        <c:crossAx val="126472960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="110812544"/>
+        <c:axId val="126472960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12857,7 +12857,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110810624"/>
+        <c:crossAx val="126446208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -13257,11 +13257,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="112228992"/>
-        <c:axId val="112239360"/>
+        <c:axId val="126574592"/>
+        <c:axId val="126576512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112228992"/>
+        <c:axId val="126574592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13340,13 +13340,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112239360"/>
+        <c:crossAx val="126576512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112239360"/>
+        <c:axId val="126576512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13425,7 +13425,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112228992"/>
+        <c:crossAx val="126574592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -13825,11 +13825,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="112142592"/>
-        <c:axId val="112165248"/>
+        <c:axId val="126717312"/>
+        <c:axId val="126727680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112142592"/>
+        <c:axId val="126717312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13908,13 +13908,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112165248"/>
+        <c:crossAx val="126727680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112165248"/>
+        <c:axId val="126727680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13993,7 +13993,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112142592"/>
+        <c:crossAx val="126717312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -14393,11 +14393,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="112283648"/>
-        <c:axId val="112285568"/>
+        <c:axId val="126796928"/>
+        <c:axId val="126798848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112283648"/>
+        <c:axId val="126796928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14476,13 +14476,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112285568"/>
+        <c:crossAx val="126798848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112285568"/>
+        <c:axId val="126798848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14561,7 +14561,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112283648"/>
+        <c:crossAx val="126796928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -14954,11 +14954,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="84083840"/>
-        <c:axId val="84085760"/>
+        <c:axId val="123775232"/>
+        <c:axId val="123793792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="84083840"/>
+        <c:axId val="123775232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15037,13 +15037,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84085760"/>
+        <c:crossAx val="123793792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84085760"/>
+        <c:axId val="123793792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15122,7 +15122,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84083840"/>
+        <c:crossAx val="123775232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -15522,11 +15522,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="112012672"/>
-        <c:axId val="112023040"/>
+        <c:axId val="123257600"/>
+        <c:axId val="123259520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112012672"/>
+        <c:axId val="123257600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15605,13 +15605,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112023040"/>
+        <c:crossAx val="123259520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112023040"/>
+        <c:axId val="123259520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15690,7 +15690,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112012672"/>
+        <c:crossAx val="123257600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -16090,11 +16090,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="112722688"/>
-        <c:axId val="112724608"/>
+        <c:axId val="125085568"/>
+        <c:axId val="124977152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112722688"/>
+        <c:axId val="125085568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16173,13 +16173,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112724608"/>
+        <c:crossAx val="124977152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112724608"/>
+        <c:axId val="124977152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16258,7 +16258,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112722688"/>
+        <c:crossAx val="125085568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -16658,11 +16658,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="112861568"/>
-        <c:axId val="112863488"/>
+        <c:axId val="125031936"/>
+        <c:axId val="125033856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112861568"/>
+        <c:axId val="125031936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16741,13 +16741,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112863488"/>
+        <c:crossAx val="125033856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112863488"/>
+        <c:axId val="125033856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16826,7 +16826,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112861568"/>
+        <c:crossAx val="125031936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -17226,11 +17226,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="112965120"/>
-        <c:axId val="112967040"/>
+        <c:axId val="127142528"/>
+        <c:axId val="127169280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112965120"/>
+        <c:axId val="127142528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17309,13 +17309,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112967040"/>
+        <c:crossAx val="127169280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112967040"/>
+        <c:axId val="127169280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17394,7 +17394,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112965120"/>
+        <c:crossAx val="127142528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -17794,11 +17794,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="113034368"/>
-        <c:axId val="113036288"/>
+        <c:axId val="127207680"/>
+        <c:axId val="127218048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="113034368"/>
+        <c:axId val="127207680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17877,13 +17877,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113036288"/>
+        <c:crossAx val="127218048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="113036288"/>
+        <c:axId val="127218048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17962,7 +17962,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113034368"/>
+        <c:crossAx val="127207680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -18362,11 +18362,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="113469696"/>
-        <c:axId val="113480064"/>
+        <c:axId val="126881152"/>
+        <c:axId val="126891520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="113469696"/>
+        <c:axId val="126881152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18445,13 +18445,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113480064"/>
+        <c:crossAx val="126891520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="113480064"/>
+        <c:axId val="126891520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18530,7 +18530,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113469696"/>
+        <c:crossAx val="126881152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -18930,11 +18930,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="113223552"/>
-        <c:axId val="113238016"/>
+        <c:axId val="127015936"/>
+        <c:axId val="127030400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="113223552"/>
+        <c:axId val="127015936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19013,13 +19013,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113238016"/>
+        <c:crossAx val="127030400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="113238016"/>
+        <c:axId val="127030400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19098,7 +19098,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113223552"/>
+        <c:crossAx val="127015936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -19498,11 +19498,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="113372544"/>
-        <c:axId val="113259648"/>
+        <c:axId val="128024960"/>
+        <c:axId val="128026880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="113372544"/>
+        <c:axId val="128024960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19581,13 +19581,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113259648"/>
+        <c:crossAx val="128026880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="113259648"/>
+        <c:axId val="128026880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19666,7 +19666,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113372544"/>
+        <c:crossAx val="128024960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -20066,11 +20066,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="113298048"/>
-        <c:axId val="113390336"/>
+        <c:axId val="127823872"/>
+        <c:axId val="127825792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="113298048"/>
+        <c:axId val="127823872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20149,13 +20149,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113390336"/>
+        <c:crossAx val="127825792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="113390336"/>
+        <c:axId val="127825792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20234,7 +20234,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113298048"/>
+        <c:crossAx val="127823872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -20634,11 +20634,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="113565056"/>
-        <c:axId val="113583616"/>
+        <c:axId val="127910656"/>
+        <c:axId val="127912576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="113565056"/>
+        <c:axId val="127910656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20717,13 +20717,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113583616"/>
+        <c:crossAx val="127912576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="113583616"/>
+        <c:axId val="127912576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20802,7 +20802,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113565056"/>
+        <c:crossAx val="127910656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -21195,11 +21195,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="83765504"/>
-        <c:axId val="83792256"/>
+        <c:axId val="123840384"/>
+        <c:axId val="123858944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="83765504"/>
+        <c:axId val="123840384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21278,13 +21278,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83792256"/>
+        <c:crossAx val="123858944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83792256"/>
+        <c:axId val="123858944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21363,7 +21363,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83765504"/>
+        <c:crossAx val="123840384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -21763,11 +21763,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="113638400"/>
-        <c:axId val="113718400"/>
+        <c:axId val="127971712"/>
+        <c:axId val="127973632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="113638400"/>
+        <c:axId val="127971712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21846,13 +21846,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113718400"/>
+        <c:crossAx val="127973632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="113718400"/>
+        <c:axId val="127973632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21931,7 +21931,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113638400"/>
+        <c:crossAx val="127971712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -22331,11 +22331,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="114000256"/>
-        <c:axId val="114002176"/>
+        <c:axId val="128062976"/>
+        <c:axId val="128064896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="114000256"/>
+        <c:axId val="128062976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22414,13 +22414,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114002176"/>
+        <c:crossAx val="128064896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="114002176"/>
+        <c:axId val="128064896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22499,7 +22499,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114000256"/>
+        <c:crossAx val="128062976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -22899,11 +22899,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="114061312"/>
-        <c:axId val="114063232"/>
+        <c:axId val="128193664"/>
+        <c:axId val="128195584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="114061312"/>
+        <c:axId val="128193664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22982,13 +22982,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114063232"/>
+        <c:crossAx val="128195584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="114063232"/>
+        <c:axId val="128195584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23067,7 +23067,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114061312"/>
+        <c:crossAx val="128193664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -23467,11 +23467,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="111965312"/>
-        <c:axId val="111967232"/>
+        <c:axId val="127527168"/>
+        <c:axId val="128229760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="111965312"/>
+        <c:axId val="127527168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23550,13 +23550,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111967232"/>
+        <c:crossAx val="128229760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="111967232"/>
+        <c:axId val="128229760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23635,7 +23635,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111965312"/>
+        <c:crossAx val="127527168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -24035,11 +24035,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="112624384"/>
-        <c:axId val="112626304"/>
+        <c:axId val="128255872"/>
+        <c:axId val="128266240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112624384"/>
+        <c:axId val="128255872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24118,13 +24118,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112626304"/>
+        <c:crossAx val="128266240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112626304"/>
+        <c:axId val="128266240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24203,7 +24203,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112624384"/>
+        <c:crossAx val="128255872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -24603,11 +24603,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="112711552"/>
-        <c:axId val="116596736"/>
+        <c:axId val="22756352"/>
+        <c:axId val="22766720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112711552"/>
+        <c:axId val="22756352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24686,13 +24686,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116596736"/>
+        <c:crossAx val="22766720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="116596736"/>
+        <c:axId val="22766720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24771,7 +24771,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112711552"/>
+        <c:crossAx val="22756352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -25171,11 +25171,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="116635136"/>
-        <c:axId val="116637056"/>
+        <c:axId val="129260160"/>
+        <c:axId val="129274624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="116635136"/>
+        <c:axId val="129260160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25254,13 +25254,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116637056"/>
+        <c:crossAx val="129274624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="116637056"/>
+        <c:axId val="129274624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25339,7 +25339,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116635136"/>
+        <c:crossAx val="129260160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -25739,11 +25739,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="116767360"/>
-        <c:axId val="116790016"/>
+        <c:axId val="128471040"/>
+        <c:axId val="128472960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="116767360"/>
+        <c:axId val="128471040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25822,13 +25822,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116790016"/>
+        <c:crossAx val="128472960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="116790016"/>
+        <c:axId val="128472960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25907,7 +25907,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116767360"/>
+        <c:crossAx val="128471040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -26307,11 +26307,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="116848896"/>
-        <c:axId val="116867456"/>
+        <c:axId val="128527744"/>
+        <c:axId val="128534016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="116848896"/>
+        <c:axId val="128527744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26390,13 +26390,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116867456"/>
+        <c:crossAx val="128534016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="116867456"/>
+        <c:axId val="128534016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26475,7 +26475,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116848896"/>
+        <c:crossAx val="128527744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -26875,11 +26875,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="99522816"/>
-        <c:axId val="99537280"/>
+        <c:axId val="124083200"/>
+        <c:axId val="124089472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99522816"/>
+        <c:axId val="124083200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26958,13 +26958,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99537280"/>
+        <c:crossAx val="124089472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99537280"/>
+        <c:axId val="124089472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27043,7 +27043,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99522816"/>
+        <c:crossAx val="124083200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -27443,11 +27443,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="83916672"/>
-        <c:axId val="83935232"/>
+        <c:axId val="124136064"/>
+        <c:axId val="124150528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="83916672"/>
+        <c:axId val="124136064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27526,13 +27526,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83935232"/>
+        <c:crossAx val="124150528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83935232"/>
+        <c:axId val="124150528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27611,7 +27611,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83916672"/>
+        <c:crossAx val="124136064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -28011,11 +28011,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="109140608"/>
-        <c:axId val="109155072"/>
+        <c:axId val="124252160"/>
+        <c:axId val="124254080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="109140608"/>
+        <c:axId val="124252160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28094,13 +28094,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109155072"/>
+        <c:crossAx val="124254080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="109155072"/>
+        <c:axId val="124254080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28179,7 +28179,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109140608"/>
+        <c:crossAx val="124252160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -28579,11 +28579,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="99563776"/>
-        <c:axId val="99578240"/>
+        <c:axId val="124312960"/>
+        <c:axId val="124319232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99563776"/>
+        <c:axId val="124312960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28662,13 +28662,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99578240"/>
+        <c:crossAx val="124319232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99578240"/>
+        <c:axId val="124319232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28747,7 +28747,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99563776"/>
+        <c:crossAx val="124312960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -29147,11 +29147,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="107003264"/>
-        <c:axId val="107034112"/>
+        <c:axId val="124498688"/>
+        <c:axId val="124500608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107003264"/>
+        <c:axId val="124498688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -29230,13 +29230,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107034112"/>
+        <c:crossAx val="124500608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107034112"/>
+        <c:axId val="124500608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -29315,7 +29315,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107003264"/>
+        <c:crossAx val="124498688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -29353,23 +29353,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>609840</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>112884</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>144945</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>24840</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>666743</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1152</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29389,23 +29389,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>9360</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>257839</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>190080</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>542091</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>160648</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29446,7 +29446,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29484,7 +29484,7 @@
         <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29527,7 +29527,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29565,7 +29565,7 @@
         <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29608,7 +29608,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29646,7 +29646,7 @@
         <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29689,7 +29689,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29727,7 +29727,7 @@
         <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29770,7 +29770,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29808,7 +29808,7 @@
         <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29851,7 +29851,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29889,7 +29889,7 @@
         <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29932,7 +29932,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29970,7 +29970,7 @@
         <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30013,7 +30013,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30051,7 +30051,7 @@
         <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30094,7 +30094,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30132,7 +30132,7 @@
         <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30175,7 +30175,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30213,7 +30213,7 @@
         <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30240,23 +30240,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>609840</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>288515</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>103283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>24840</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>13364</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>156203</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30292,7 +30292,7 @@
         <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30333,7 +30333,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30371,7 +30371,7 @@
         <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1300-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30414,7 +30414,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30452,7 +30452,7 @@
         <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1400-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30495,7 +30495,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30533,7 +30533,7 @@
         <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1500-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30576,7 +30576,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30614,7 +30614,7 @@
         <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1600-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30657,7 +30657,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2F710D4-64BF-FE4B-83DC-A1E3EDA407DE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2F710D4-64BF-FE4B-83DC-A1E3EDA407DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30695,7 +30695,7 @@
         <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A977F684-D28C-9B42-8D70-2800DCC1E5EF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A977F684-D28C-9B42-8D70-2800DCC1E5EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30738,7 +30738,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30776,7 +30776,7 @@
         <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30819,7 +30819,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30857,7 +30857,7 @@
         <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30900,7 +30900,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30938,7 +30938,7 @@
         <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30981,7 +30981,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31019,7 +31019,7 @@
         <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31046,23 +31046,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>609840</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>275629</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>41777</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>24840</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>46294</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>818591</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>96426</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31100,7 +31100,7 @@
         <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31143,7 +31143,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31181,7 +31181,7 @@
         <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31224,7 +31224,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31262,7 +31262,7 @@
         <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31630,7 +31630,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -31641,7 +31641,7 @@
   <dimension ref="A1:Z61"/>
   <sheetViews>
     <sheetView zoomScale="92" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32006,6 +32006,10 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F8" s="22"/>
+      <c r="G8">
+        <f>(D4-B4)/B4</f>
+        <v>-3.7581699346404915E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -32121,7 +32125,7 @@
         <v>Excellent</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>8</v>
       </c>
@@ -32133,7 +32137,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>9</v>
       </c>
@@ -32145,7 +32149,7 @@
         <v>4.5599999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>10</v>
       </c>
@@ -32161,7 +32165,7 @@
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>11</v>
       </c>
@@ -32174,7 +32178,7 @@
       </c>
       <c r="L20" s="25"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>12</v>
       </c>
@@ -32189,7 +32193,7 @@
       <c r="G21" s="26"/>
       <c r="L21" s="25"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>13</v>
       </c>
@@ -32204,7 +32208,7 @@
       <c r="G22" s="26"/>
       <c r="L22" s="25"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>14</v>
       </c>
@@ -32218,8 +32222,12 @@
       <c r="F23" s="26"/>
       <c r="G23" s="26"/>
       <c r="L23" s="25"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N23">
+        <f>(15-0.37)/(0-1.609)</f>
+        <v>-9.0926041019266624</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>15</v>
       </c>
@@ -32234,7 +32242,7 @@
       <c r="G24" s="26"/>
       <c r="L24" s="25"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>16</v>
       </c>
@@ -32249,7 +32257,7 @@
       <c r="G25" s="26"/>
       <c r="L25" s="25"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>17</v>
       </c>
@@ -32264,7 +32272,7 @@
       <c r="G26" s="26"/>
       <c r="L26" s="25"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>18</v>
       </c>
@@ -32279,7 +32287,7 @@
       <c r="G27" s="26"/>
       <c r="L27" s="25"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>19</v>
       </c>
@@ -32294,7 +32302,7 @@
       <c r="G28" s="26"/>
       <c r="L28" s="25"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>20</v>
       </c>
@@ -32309,14 +32317,14 @@
       <c r="G29" s="26"/>
       <c r="L29" s="25"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
       <c r="L30" s="25"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>4</v>
       </c>
@@ -32332,7 +32340,7 @@
       <c r="G31" s="26"/>
       <c r="L31" s="25"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>3</v>
       </c>
@@ -42135,7 +42143,7 @@
   <dimension ref="A1:Z61"/>
   <sheetViews>
     <sheetView zoomScale="83" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46923,8 +46931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51713,8 +51721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z61"/>
   <sheetViews>
-    <sheetView zoomScale="114" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
